--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1025296.052601624</v>
+        <v>1049897.513386484</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>205.5178444382804</v>
@@ -674,7 +674,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>24.97787003461153</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>59.78769987392413</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="5">
@@ -908,7 +908,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G5" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="6">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>119.1003526907495</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>53.6747228092714</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,61 +1139,61 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>158.841334124391</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G8" t="n">
-        <v>159.0801288120801</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>64.2465020694499</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1269,7 +1269,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>130.0646822814658</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,73 +1367,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>159.0801288120801</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>186.0104598622175</v>
       </c>
       <c r="U12" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F14" t="n">
         <v>205.5178444382804</v>
@@ -1625,10 +1625,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>113.950365236779</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1898,10 +1898,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,17 +2081,17 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>184.942010685325</v>
       </c>
       <c r="V21" t="n">
-        <v>193.4616495665634</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2254,37 +2254,37 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>11.19305615617957</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,25 +2397,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.245357950761489</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2445,25 +2445,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>78.19069652883213</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2488,46 +2488,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
@@ -2597,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>52.24924162573027</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2874,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>132.8759660302687</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>96.52468151912586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>76.79360427493792</v>
+        <v>142.2301817782798</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3284,7 +3284,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>202.2946864288972</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>1.8542299924609</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>14.86695539771652</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,76 +3500,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.6846781620519644</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>190.23914516611</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
-        <v>31.1509994400877</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="42">
@@ -3828,7 +3828,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>128.7350472114737</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>23.37503692583646</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="44">
@@ -3974,26 +3974,26 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.4688076457952</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>670.6884303378189</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C2" t="n">
-        <v>670.6884303378189</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D2" t="n">
-        <v>670.6884303378189</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E2" t="n">
-        <v>651.2927635848137</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F2" t="n">
-        <v>443.6989813239244</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
         <v>28.51141680214578</v>
@@ -4349,31 +4349,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U2" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V2" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W2" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X2" t="n">
-        <v>670.6884303378189</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y2" t="n">
-        <v>670.6884303378189</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>441.0602509429012</v>
+        <v>279.4991054615201</v>
       </c>
       <c r="C3" t="n">
-        <v>441.0602509429012</v>
+        <v>279.4991054615201</v>
       </c>
       <c r="D3" t="n">
-        <v>441.0602509429012</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E3" t="n">
-        <v>441.0602509429012</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F3" t="n">
-        <v>294.5256929697862</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G3" t="n">
-        <v>155.7948675524017</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
-        <v>42.42573195998101</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4410,49 +4410,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>142.2888212580996</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>441.0602509429012</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V3" t="n">
-        <v>441.0602509429012</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W3" t="n">
-        <v>441.0602509429012</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X3" t="n">
-        <v>441.0602509429012</v>
+        <v>487.0928877224094</v>
       </c>
       <c r="Y3" t="n">
-        <v>441.0602509429012</v>
+        <v>279.4991054615201</v>
       </c>
     </row>
     <row r="4">
@@ -4531,7 +4531,7 @@
         <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C5" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D5" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E5" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F5" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4604,13 +4604,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>600.5984617496947</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U6" t="n">
-        <v>393.0046794888054</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V6" t="n">
-        <v>393.0046794888054</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W6" t="n">
-        <v>393.0046794888054</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X6" t="n">
-        <v>393.0046794888054</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y6" t="n">
-        <v>185.4108972279162</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D8" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>396.792197863116</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="F8" t="n">
-        <v>189.1984156022267</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4811,43 +4811,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107.4951893506917</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="C9" t="n">
-        <v>107.4951893506917</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="D9" t="n">
-        <v>107.4951893506917</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="E9" t="n">
-        <v>107.4951893506917</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="F9" t="n">
-        <v>107.4951893506917</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G9" t="n">
         <v>107.4951893506917</v>
@@ -4887,46 +4887,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>446.4674385625565</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U9" t="n">
-        <v>238.8736563016672</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="V9" t="n">
-        <v>107.4951893506917</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W9" t="n">
-        <v>107.4951893506917</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="X9" t="n">
-        <v>107.4951893506917</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.4951893506917</v>
+        <v>311.1214714038841</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4984,28 +4984,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>811.9797623848946</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,13 +5124,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
         <v>639.4279001397708</v>
@@ -5142,28 +5142,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="U12" t="n">
-        <v>639.2227743377304</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="V12" t="n">
-        <v>639.2227743377304</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="W12" t="n">
-        <v>431.628992076841</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="X12" t="n">
-        <v>224.0352098159517</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
         <v>133.2380658808762</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,43 +5285,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5379,28 +5379,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>807.2329312674061</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T15" t="n">
-        <v>432.3831247296267</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U15" t="n">
-        <v>432.3831247296267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V15" t="n">
-        <v>432.3831247296267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W15" t="n">
-        <v>224.7893424687375</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>224.7893424687375</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>376.1934816808115</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5598,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
         <v>19.28114311021272</v>
@@ -5707,16 +5707,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>315.6850394389064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D20" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.5807722530562</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C21" t="n">
-        <v>109.5807722530562</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D21" t="n">
-        <v>109.5807722530562</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="V21" t="n">
-        <v>768.6413478676429</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="W21" t="n">
-        <v>525.1925712235429</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="X21" t="n">
-        <v>317.3410710180102</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="Y21" t="n">
-        <v>109.5807722530562</v>
+        <v>502.6601697108322</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>203.827050448935</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="C24" t="n">
-        <v>29.37402116780802</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="D24" t="n">
-        <v>29.37402116780802</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E24" t="n">
-        <v>29.37402116780802</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F24" t="n">
-        <v>29.37402116780802</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G24" t="n">
-        <v>29.37402116780802</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H24" t="n">
-        <v>29.37402116780802</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6069,22 +6069,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="W24" t="n">
-        <v>619.4388494194218</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="X24" t="n">
-        <v>411.587349213889</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.827050448935</v>
+        <v>408.3031853286819</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6175,22 +6175,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>262.7299197543128</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.38115216564972</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C27" t="n">
-        <v>49.38115216564972</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D27" t="n">
-        <v>49.38115216564972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6312,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N27" t="n">
         <v>487.8483949674443</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>726.4525409563269</v>
       </c>
-      <c r="O27" t="n">
-        <v>781.4136778972854</v>
-      </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>911.2801437674743</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564972</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="28">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E29" t="n">
         <v>506.1786963984129</v>
@@ -6452,7 +6452,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>439.5188066588198</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6573,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>116.7808214123601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X30" t="n">
-        <v>116.7808214123601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6655,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>420.237879300003</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="C33" t="n">
-        <v>245.784850018876</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="D33" t="n">
-        <v>96.85044035762476</v>
+        <v>506.1017161967378</v>
       </c>
       <c r="E33" t="n">
-        <v>96.85044035762476</v>
+        <v>506.1017161967378</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6783,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6880,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F35" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>344.5415416409353</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C36" t="n">
-        <v>170.0885123598083</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D36" t="n">
-        <v>21.15410269855707</v>
+        <v>478.8011081705279</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>319.5636531650724</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>173.0290951919573</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>34.29826977457284</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7020,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y36" t="n">
-        <v>512.7568786610034</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7117,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W38" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>284.725395637266</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.272366356139</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.272366356139</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.272366356139</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.272366356139</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.272366356139</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.272366356139</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.97273721329552</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W39" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X39" t="n">
-        <v>569.7098081763618</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y39" t="n">
-        <v>361.9495094114078</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="40">
@@ -7354,28 +7354,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.90708355515102</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
         <v>16.44142755506243</v>
@@ -7433,28 +7433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.5008658160403</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>305.7142837842288</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="C42" t="n">
-        <v>305.7142837842288</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D42" t="n">
-        <v>305.7142837842288</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
-        <v>146.4768287787733</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7494,46 +7494,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M42" t="n">
-        <v>366.5706756325438</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>798.4602293431858</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>798.4602293431858</v>
       </c>
       <c r="T42" t="n">
-        <v>720.9018483060073</v>
+        <v>798.4602293431858</v>
       </c>
       <c r="U42" t="n">
-        <v>720.9018483060073</v>
+        <v>798.4602293431858</v>
       </c>
       <c r="V42" t="n">
-        <v>513.308066045118</v>
+        <v>590.8664470822965</v>
       </c>
       <c r="W42" t="n">
-        <v>513.308066045118</v>
+        <v>590.8664470822965</v>
       </c>
       <c r="X42" t="n">
-        <v>513.308066045118</v>
+        <v>383.2726648214073</v>
       </c>
       <c r="Y42" t="n">
-        <v>305.7142837842288</v>
+        <v>175.6788825605179</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>710.0335234506114</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,46 +7649,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y44" t="n">
         <v>224.0352098159517</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.19556020784815</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,13 +7731,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
         <v>570.0333416264414</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>634.5697193708606</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>432.3831247296267</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U45" t="n">
-        <v>224.7893424687375</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V45" t="n">
-        <v>224.7893424687375</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W45" t="n">
-        <v>224.7893424687375</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X45" t="n">
-        <v>17.19556020784815</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.19556020784815</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="46">
@@ -7828,10 +7828,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
         <v>16.44142755506243</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>265.6729592778915</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8070,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,16 +8459,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8705,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,16 +8772,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8933,16 +8933,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,10 +9483,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10194,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10206,10 +10206,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10431,10 +10431,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10443,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,10 +10677,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M42" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,16 +11379,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,16 +23270,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>51.39576075832579</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23315,13 +23315,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23349,16 +23349,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>14.15426883260409</v>
       </c>
       <c r="U12" t="n">
-        <v>44.92126469973746</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,7 +23434,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,10 +23455,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.32518834398851</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F14" t="n">
         <v>201.358201303431</v>
@@ -23513,10 +23513,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23595,7 +23595,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>85.46777213178478</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>86.21436345804264</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23750,7 +23750,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>110.0962526177847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,16 +23969,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E20" t="n">
-        <v>329.5048015845142</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,10 +24011,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24048,13 +24048,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24066,10 +24066,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>40.9993713956498</v>
       </c>
       <c r="V21" t="n">
-        <v>39.33893758286192</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24142,7 +24142,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>370.7373139160822</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24285,25 +24285,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15127490065359</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,25 +24333,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>147.7506855521427</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
@@ -24485,19 +24485,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>59.59762388653245</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>199.4457415351893</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,16 +24686,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24731,10 +24731,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24762,16 +24762,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>24.76911442513227</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,19 +24813,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>109.1580142581785</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24895,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,22 +24965,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25005,19 +25005,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>68.27560811844596</v>
+        <v>2.839030615104122</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,7 +25059,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25172,7 +25172,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>8.181203141508689</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>155.7908504629401</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>97.36848883877994</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,13 +25290,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25488,10 +25488,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0.06191316420589232</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25533,7 +25533,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>15.53384003736747</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25628,7 +25628,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>334.1218923309199</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25673,7 +25673,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="42">
@@ -25716,7 +25716,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>16.33416518191015</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>76.78279722680668</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25770,7 +25770,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25804,13 +25804,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>140.6136200195525</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
         <v>86.16204325169439</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>27.99995220500799</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>215.208520489361</v>
       </c>
     </row>
     <row r="45">
@@ -25956,7 +25956,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>122.6534551423523</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>86.21436345804263</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394547.147088468</v>
+        <v>394547.1470884678</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415580.3161635466</v>
+        <v>415580.3161635468</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415580.3161635466</v>
+        <v>415580.3161635467</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415580.3161635466</v>
+        <v>415580.3161635468</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>415580.3161635466</v>
+        <v>415580.3161635468</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415580.3161635469</v>
+        <v>415580.3161635466</v>
       </c>
     </row>
     <row r="15">
@@ -26314,7 +26314,7 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
@@ -26335,19 +26335,19 @@
         <v>191084.7734110323</v>
       </c>
       <c r="J2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="K2" t="n">
         <v>191084.7734110322</v>
       </c>
       <c r="L2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="M2" t="n">
         <v>191084.7734110322</v>
       </c>
       <c r="N2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="O2" t="n">
         <v>181421.2881101714</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315381.2204626939</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="C4" t="n">
-        <v>315381.220462694</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="D4" t="n">
-        <v>315381.2204626939</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="E4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41720.95568573176</v>
+        <v>44593.80166566608</v>
       </c>
       <c r="C6" t="n">
-        <v>110594.7122674215</v>
+        <v>113467.5582473559</v>
       </c>
       <c r="D6" t="n">
-        <v>110594.7122674215</v>
+        <v>113467.5582473558</v>
       </c>
       <c r="E6" t="n">
-        <v>142082.456853078</v>
+        <v>144955.3028330124</v>
       </c>
       <c r="F6" t="n">
-        <v>142082.456853078</v>
+        <v>144955.3028330124</v>
       </c>
       <c r="G6" t="n">
-        <v>138391.8203420936</v>
+        <v>141419.7934604843</v>
       </c>
       <c r="H6" t="n">
-        <v>148120.8633162607</v>
+        <v>151148.8364346514</v>
       </c>
       <c r="I6" t="n">
-        <v>148120.8633162607</v>
+        <v>151148.8364346513</v>
       </c>
       <c r="J6" t="n">
-        <v>94348.35242605122</v>
+        <v>97376.32554444193</v>
       </c>
       <c r="K6" t="n">
-        <v>148120.8633162606</v>
+        <v>151148.8364346513</v>
       </c>
       <c r="L6" t="n">
-        <v>148120.8633162607</v>
+        <v>151148.8364346513</v>
       </c>
       <c r="M6" t="n">
-        <v>148120.8633162606</v>
+        <v>151148.8364346513</v>
       </c>
       <c r="N6" t="n">
-        <v>148120.8633162606</v>
+        <v>151148.8364346513</v>
       </c>
       <c r="O6" t="n">
-        <v>142082.456853078</v>
+        <v>144955.3028330124</v>
       </c>
       <c r="P6" t="n">
-        <v>142082.456853078</v>
+        <v>144955.3028330124</v>
       </c>
     </row>
   </sheetData>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>362.7286599867866</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>201.358201303431</v>
@@ -27394,7 +27394,7 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>377.0269277851232</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>64.41876281680355</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>145.9852853295533</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.36645333167579</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183328</v>
       </c>
     </row>
     <row r="5">
@@ -27628,7 +27628,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
-        <v>246.2319094885102</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="6">
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>81.06437600407213</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>152.007972968033</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>223.0890359478708</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>256.2226087030549</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27907,13 +27907,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27941,10 +27941,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>80.82271032393398</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>102.7359048679595</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>71.32518834398851</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>127.1185794980173</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34790,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O6" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35425,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,16 +35653,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>148.1480627106907</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,13 +35966,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36926,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37163,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,7 +37388,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,10 +37397,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M42" t="n">
-        <v>148.1480627106907</v>
-      </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1049897.513386484</v>
+        <v>1050681.659324513</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443407</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.211010870930394</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -798,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>15.6229129594413</v>
       </c>
       <c r="X3" t="n">
-        <v>59.78769987392413</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.5178444382804</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>165.7173798661024</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>129.8615539919776</v>
       </c>
       <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>53.6747228092714</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>158.841334124391</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>158.8413341243909</v>
       </c>
       <c r="W8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>64.2465020694499</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>107.0227426068962</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1455,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>112.6175240304929</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>186.0104598622175</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1613,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
@@ -1625,10 +1627,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1689,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>90.38893773807641</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1983,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2005,67 +2007,67 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,23 +2083,23 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2160,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2214,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>184.942010685325</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2324,58 +2326,58 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.809496073036132</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2445,25 +2447,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>9.245357950761532</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>78.19069652883213</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2515,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2597,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>52.24924162573027</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,73 +2791,73 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2874,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>132.8759660302687</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2889,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>33.78877563476568</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2922,7 +2924,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>88.05756064065925</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>142.2301817782798</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>14.86695539771652</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3430,46 +3432,46 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>150.9993436125</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6846781620519644</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,55 +3660,55 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="C41" t="n">
         <v>205.5178444382804</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.37503692583646</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>186.8078260851154</v>
       </c>
     </row>
     <row r="43">
@@ -3919,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4068,40 +4070,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
         <v>14.69006202085835</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.6989813239244</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C2" t="n">
-        <v>443.6989813239244</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D2" t="n">
-        <v>443.6989813239244</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E2" t="n">
-        <v>443.6989813239244</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>236.1051990630351</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
         <v>28.51141680214578</v>
@@ -4334,13 +4336,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4367,13 +4369,13 @@
         <v>660.5968149695918</v>
       </c>
       <c r="W2" t="n">
-        <v>660.5968149695918</v>
+        <v>466.1017926944763</v>
       </c>
       <c r="X2" t="n">
-        <v>453.0030327087026</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y2" t="n">
-        <v>443.6989813239244</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.4991054615201</v>
+        <v>425.2795307818494</v>
       </c>
       <c r="C3" t="n">
-        <v>279.4991054615201</v>
+        <v>425.2795307818494</v>
       </c>
       <c r="D3" t="n">
-        <v>130.5646958002688</v>
+        <v>276.3451211205982</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5646958002688</v>
+        <v>276.3451211205982</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5646958002688</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4413,46 +4415,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V3" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W3" t="n">
-        <v>547.4845037566762</v>
+        <v>632.8733130427387</v>
       </c>
       <c r="X3" t="n">
-        <v>487.0928877224094</v>
+        <v>632.8733130427387</v>
       </c>
       <c r="Y3" t="n">
-        <v>279.4991054615201</v>
+        <v>425.2795307818494</v>
       </c>
     </row>
     <row r="4">
@@ -4510,25 +4512,25 @@
         <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
         <v>16.44142755506243</v>
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E5" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G5" t="n">
         <v>16.44142755506243</v>
@@ -4568,13 +4570,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4607,10 +4609,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
         <v>435.9652341458732</v>
@@ -4671,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>446.4674385625565</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>446.4674385625565</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
-        <v>446.4674385625565</v>
+        <v>483.304308631649</v>
       </c>
       <c r="X6" t="n">
-        <v>238.8736563016672</v>
+        <v>483.304308631649</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>275.7105263707597</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="E8" t="n">
         <v>38.84423892561444</v>
@@ -4805,10 +4807,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4838,16 +4840,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>661.6255857082823</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>454.031803447393</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>38.84423892561444</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311.1214714038841</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="C9" t="n">
-        <v>311.1214714038841</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="D9" t="n">
-        <v>311.1214714038841</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E9" t="n">
-        <v>311.1214714038841</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F9" t="n">
-        <v>246.2260147680761</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4951893506917</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4887,13 +4889,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>518.7152536647734</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>311.1214714038841</v>
+        <v>713.9675973421154</v>
       </c>
       <c r="V9" t="n">
-        <v>311.1214714038841</v>
+        <v>713.9675973421154</v>
       </c>
       <c r="W9" t="n">
-        <v>311.1214714038841</v>
+        <v>713.9675973421154</v>
       </c>
       <c r="X9" t="n">
-        <v>311.1214714038841</v>
+        <v>506.3738150812261</v>
       </c>
       <c r="Y9" t="n">
-        <v>311.1214714038841</v>
+        <v>298.7800328203368</v>
       </c>
     </row>
     <row r="10">
@@ -4978,25 +4980,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
         <v>16.44142755506243</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="C11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="D11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="E11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="G11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="H11" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H11" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5048,31 +5050,31 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
         <v>639.2227743377304</v>
@@ -5081,10 +5083,10 @@
         <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>359.5951503604969</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="C12" t="n">
-        <v>359.5951503604969</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="D12" t="n">
-        <v>359.5951503604969</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="E12" t="n">
-        <v>359.5951503604969</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F12" t="n">
         <v>359.5951503604969</v>
@@ -5124,46 +5126,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>359.5951503604969</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>359.5951503604969</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>359.5951503604969</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W12" t="n">
-        <v>359.5951503604969</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X12" t="n">
-        <v>359.5951503604969</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.5951503604969</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I13" t="n">
         <v>133.2380658808762</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>807.2329312674061</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>633.815586718075</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>814.3015730003187</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5549,16 +5551,16 @@
         <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5598,37 +5600,37 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
         <v>19.28114311021272</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
         <v>19.28114311021272</v>
@@ -5713,10 +5715,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
         <v>506.1786963984129</v>
@@ -5738,10 +5740,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5788,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>502.6601697108322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>502.6601697108322</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>502.6601697108322</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>502.6601697108322</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X21" t="n">
-        <v>502.6601697108322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>502.6601697108322</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E23" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>408.3031853286819</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C24" t="n">
-        <v>408.3031853286819</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>408.3031853286819</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6069,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="U24" t="n">
-        <v>408.3031853286819</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="V24" t="n">
-        <v>408.3031853286819</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="W24" t="n">
-        <v>408.3031853286819</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X24" t="n">
-        <v>408.3031853286819</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y24" t="n">
-        <v>408.3031853286819</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="25">
@@ -6163,16 +6165,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>517.4848137278872</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>517.4848137278872</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>327.4530077769195</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C27" t="n">
-        <v>327.4530077769195</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>911.2801437674743</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>703.4286435619415</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>495.6683447969875</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>588.4532163200711</v>
+        <v>339.4307355522512</v>
       </c>
       <c r="C30" t="n">
-        <v>588.4532163200711</v>
+        <v>339.4307355522512</v>
       </c>
       <c r="D30" t="n">
-        <v>439.5188066588198</v>
+        <v>339.4307355522512</v>
       </c>
       <c r="E30" t="n">
-        <v>305.3006591534979</v>
+        <v>339.4307355522512</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>192.8961775791362</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>54.16535216175166</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>54.16535216175166</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6546,10 +6548,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
         <v>725.4530095217538</v>
@@ -6570,22 +6572,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>588.4532163200711</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X30" t="n">
-        <v>588.4532163200711</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y30" t="n">
-        <v>588.4532163200711</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6657,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>655.0361258579891</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C33" t="n">
-        <v>655.0361258579891</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="D33" t="n">
-        <v>506.1017161967378</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>506.1017161967378</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6788,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.0361258579891</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6882,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F35" t="n">
         <v>718.7806050553886</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>627.7355178317791</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>478.8011081705279</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>319.5636531650724</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>173.0290951919573</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>34.29826977457284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7023,43 +7025,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>627.7355178317791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>627.7355178317791</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>627.7355178317791</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7196,25 +7198,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W38" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U38" t="n">
+      <c r="X38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="V38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="W38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
         <v>19.28114311021272</v>
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.725395637266</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>19.97273721329552</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,7 +7262,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X39" t="n">
-        <v>660.701031422288</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y39" t="n">
-        <v>452.9407326573341</v>
+        <v>346.2587618989155</v>
       </c>
     </row>
     <row r="40">
@@ -7354,28 +7356,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7433,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>175.6788825605179</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="C42" t="n">
-        <v>175.6788825605179</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D42" t="n">
         <v>175.6788825605179</v>
@@ -7494,46 +7496,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>29.03990215807806</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>798.4602293431858</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>798.4602293431858</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>798.4602293431858</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U42" t="n">
-        <v>798.4602293431858</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V42" t="n">
-        <v>590.8664470822965</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W42" t="n">
-        <v>590.8664470822965</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X42" t="n">
-        <v>383.2726648214073</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.6788825605179</v>
+        <v>324.6132922217692</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>804.3357255886647</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7652,16 +7654,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7691,7 +7693,7 @@
         <v>396.792197863116</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7728,13 +7730,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
         <v>366.5706756325438</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>807.2329312674061</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T45" t="n">
-        <v>446.4674385625565</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U45" t="n">
-        <v>238.8736563016672</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V45" t="n">
-        <v>238.8736563016672</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W45" t="n">
-        <v>238.8736563016672</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7828,10 +7830,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
         <v>16.44142755506243</v>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7991,7 +7993,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
-        <v>144.0674440055713</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8453,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -8544,7 +8546,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>401.9436843039723</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10196,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10671,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11142,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>151.2801117021122</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11154,10 +11156,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11302,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23273,10 +23275,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23315,13 +23317,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23343,10 +23345,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>45.02755642490803</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>14.15426883260409</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23501,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>210.9009519055692</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>237.8052177150866</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
@@ -23513,10 +23515,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23577,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>85.46777213178478</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>197.9905890720295</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23871,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23893,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24048,13 +24050,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24102,16 +24104,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>40.9993713956498</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24142,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24212,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>380.1208739992256</v>
+        <v>370.7373139160822</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24285,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>162.4378131530763</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>147.7506855521427</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24403,19 +24405,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24485,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>358.5380445222895</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24576,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>199.4457415351893</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24725,7 +24727,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24734,16 +24736,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24762,10 +24764,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>24.76911442513227</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24777,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>55.60785721664939</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24810,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24968,19 +24970,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>59.38750492397951</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2.839030615104122</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,7 +25061,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25163,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>405.0665496686753</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>97.36848883877994</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25436,28 +25438,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>15.53384003736738</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.06191316420589232</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25533,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>351.5828422233929</v>
       </c>
       <c r="C41" t="n">
         <v>159.7550473327271</v>
@@ -25673,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25710,7 +25712,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>76.78279722680668</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>18.87486969218901</v>
       </c>
     </row>
     <row r="43">
@@ -25807,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398857</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>215.208520489361</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25956,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>122.6534551423523</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>85.46777213178478</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394547.1470884678</v>
+        <v>394547.147088468</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415580.3161635468</v>
+        <v>415580.3161635466</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415580.3161635467</v>
+        <v>415580.3161635466</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415580.3161635468</v>
+        <v>415580.3161635467</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>415580.3161635468</v>
+        <v>415580.3161635466</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415580.3161635466</v>
+        <v>415580.3161635468</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415580.3161635466</v>
+        <v>415580.3161635468</v>
       </c>
     </row>
     <row r="15">
@@ -26314,10 +26316,10 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="E2" t="n">
         <v>181421.2881101714</v>
@@ -26329,7 +26331,7 @@
         <v>191084.7734110323</v>
       </c>
       <c r="H2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="I2" t="n">
         <v>191084.7734110323</v>
@@ -26341,13 +26343,13 @@
         <v>191084.7734110322</v>
       </c>
       <c r="L2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="M2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="N2" t="n">
         <v>191084.7734110322</v>
-      </c>
-      <c r="M2" t="n">
-        <v>191084.7734110322</v>
-      </c>
-      <c r="N2" t="n">
-        <v>191084.7734110323</v>
       </c>
       <c r="O2" t="n">
         <v>181421.2881101714</v>
@@ -26525,10 +26527,10 @@
         <v>113467.5582473559</v>
       </c>
       <c r="D6" t="n">
-        <v>113467.5582473558</v>
+        <v>113467.5582473557</v>
       </c>
       <c r="E6" t="n">
-        <v>144955.3028330124</v>
+        <v>144955.3028330125</v>
       </c>
       <c r="F6" t="n">
         <v>144955.3028330124</v>
@@ -26537,19 +26539,19 @@
         <v>141419.7934604843</v>
       </c>
       <c r="H6" t="n">
+        <v>151148.8364346513</v>
+      </c>
+      <c r="I6" t="n">
         <v>151148.8364346514</v>
       </c>
-      <c r="I6" t="n">
-        <v>151148.8364346513</v>
-      </c>
       <c r="J6" t="n">
-        <v>97376.32554444193</v>
+        <v>97376.3255444419</v>
       </c>
       <c r="K6" t="n">
         <v>151148.8364346513</v>
       </c>
       <c r="L6" t="n">
-        <v>151148.8364346513</v>
+        <v>151148.8364346514</v>
       </c>
       <c r="M6" t="n">
         <v>151148.8364346513</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>156.6908966650487</v>
       </c>
       <c r="X2" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.0269277851232</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27469,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27479,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27518,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>236.0720702014783</v>
       </c>
       <c r="X3" t="n">
-        <v>145.9852853295533</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0.1648513390239543</v>
@@ -27582,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690797</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.11912650183328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>241.1586658756091</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27679,10 +27681,10 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27713,10 +27715,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,25 +27745,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>121.833429168942</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>152.007972968033</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>223.0890359478708</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27910,13 +27912,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>168.910924345744</v>
       </c>
       <c r="W8" t="n">
         <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>80.82271032393398</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>118.9186394740786</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28050,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34702,7 +34704,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34711,7 +34713,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35255,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,7 +35266,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>171.5974510766996</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37391,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>12.72573192223801</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37874,10 +37876,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1050681.659324513</v>
+        <v>981021.3236499853</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -709,25 +709,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>192.5500720523643</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>128.257125172399</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.6229129594413</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>165.7173798661024</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>129.8615539919776</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>198.6371028208745</v>
       </c>
       <c r="Y6" t="n">
         <v>205.5178444382804</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="V8" t="n">
-        <v>158.8413341243909</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>70.99092168376417</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>107.0227426068962</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>21.16030022554286</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>112.6175240304929</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="I14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>42.1462917273642</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.692106705274854</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1937,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>60.32085216144026</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2213,7 +2213,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2222,10 +2222,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X21" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2256,52 +2256,52 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -2377,7 +2377,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>23.17871577922039</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>9.245357950761532</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V26" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>150.5948699360858</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2730,55 +2730,55 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="30">
@@ -2882,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>33.78877563476568</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>88.05756064065925</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.809496073036132</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.9993436125</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>115.8746375175634</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.1509994400877</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C41" t="n">
         <v>205.5178444382804</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3833,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>45.21134742255915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>186.8078260851154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="V44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>39.7625520093063</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.91422817269779</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C2" t="n">
-        <v>50.91422817269779</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D2" t="n">
-        <v>50.91422817269779</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E2" t="n">
         <v>50.91422817269779</v>
@@ -4336,13 +4336,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4357,25 +4357,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>660.5968149695918</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V2" t="n">
-        <v>660.5968149695918</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W2" t="n">
-        <v>466.1017926944763</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X2" t="n">
-        <v>258.5080104335871</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.91422817269779</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>425.2795307818494</v>
+        <v>350.8860444944306</v>
       </c>
       <c r="C3" t="n">
-        <v>425.2795307818494</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="D3" t="n">
-        <v>276.3451211205982</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E3" t="n">
-        <v>276.3451211205982</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>142.2888212580996</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4439,22 +4439,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>519.1013815144986</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>519.1013815144986</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>519.1013815144986</v>
       </c>
       <c r="W3" t="n">
-        <v>632.8733130427387</v>
+        <v>519.1013815144986</v>
       </c>
       <c r="X3" t="n">
-        <v>632.8733130427387</v>
+        <v>519.1013815144986</v>
       </c>
       <c r="Y3" t="n">
-        <v>425.2795307818494</v>
+        <v>519.1013815144986</v>
       </c>
     </row>
     <row r="4">
@@ -4512,16 +4512,16 @@
         <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
         <v>16.44142755506243</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C5" t="n">
-        <v>406.8838132313431</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D5" t="n">
-        <v>406.8838132313431</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E5" t="n">
-        <v>199.2900309704538</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F5" t="n">
-        <v>31.89873817641097</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="X5" t="n">
-        <v>406.8838132313431</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107.4951893506917</v>
+        <v>312.6645278422145</v>
       </c>
       <c r="C6" t="n">
-        <v>107.4951893506917</v>
+        <v>312.6645278422145</v>
       </c>
       <c r="D6" t="n">
-        <v>107.4951893506917</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="E6" t="n">
-        <v>107.4951893506917</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="F6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4649,13 +4649,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
         <v>435.9652341458732</v>
@@ -4670,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>483.304308631649</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>483.304308631649</v>
+        <v>520.2583101031038</v>
       </c>
       <c r="Y6" t="n">
-        <v>275.7105263707597</v>
+        <v>312.6645278422145</v>
       </c>
     </row>
     <row r="7">
@@ -4746,31 +4746,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.84423892561444</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C8" t="n">
-        <v>38.84423892561444</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D8" t="n">
-        <v>38.84423892561444</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E8" t="n">
-        <v>38.84423892561444</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="V8" t="n">
-        <v>661.6255857082823</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="W8" t="n">
-        <v>454.031803447393</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="X8" t="n">
-        <v>246.4380211865037</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y8" t="n">
-        <v>38.84423892561444</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>130.5646958002688</v>
+        <v>340.5829991502264</v>
       </c>
       <c r="C9" t="n">
-        <v>130.5646958002688</v>
+        <v>166.1299698690994</v>
       </c>
       <c r="D9" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
         <v>17.19556020784815</v>
@@ -4886,19 +4886,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>713.9675973421154</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>713.9675973421154</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W9" t="n">
-        <v>713.9675973421154</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X9" t="n">
-        <v>506.3738150812261</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y9" t="n">
-        <v>298.7800328203368</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5050,7 +5050,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5068,25 +5068,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>619.8847831118876</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="C12" t="n">
-        <v>619.8847831118876</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>619.8847831118876</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5126,46 +5126,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>619.8847831118876</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V12" t="n">
-        <v>619.8847831118876</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W12" t="n">
-        <v>619.8847831118876</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X12" t="n">
-        <v>619.8847831118876</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y12" t="n">
-        <v>619.8847831118876</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5287,7 +5287,7 @@
         <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5302,28 +5302,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>814.3015730003187</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,13 +5363,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="Y15" t="n">
-        <v>814.3015730003187</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="16">
@@ -5454,19 +5454,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
         <v>16.44142755506243</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>726.1056462496665</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>452.8495312167552</v>
       </c>
     </row>
     <row r="19">
@@ -5700,19 +5700,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>262.7299197543128</v>
@@ -5743,7 +5743,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,16 +5861,16 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W21" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
         <v>19.28114311021272</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U23" t="n">
-        <v>274.0360370837871</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6095,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>853.5488806587123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>853.5488806587123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>853.5488806587123</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>853.5488806587123</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>610.1001040146123</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>402.2486038090794</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="25">
@@ -6165,25 +6165,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.38115216564972</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C27" t="n">
-        <v>49.38115216564972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D27" t="n">
-        <v>49.38115216564972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E27" t="n">
-        <v>49.38115216564972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9411252721657</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9411252721657</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>583.7175070085548</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>583.7175070085548</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564972</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6426,10 +6426,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>325.7766548071333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>82.32787816303323</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>339.4307355522512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>339.4307355522512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>339.4307355522512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>339.4307355522512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>192.8961775791362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>54.16535216175166</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>54.16535216175166</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>547.1910343172051</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>339.4307355522512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6654,10 +6654,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>414.0001870389441</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6785,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6891,7 +6891,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>962.2293816994886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C35" t="n">
-        <v>962.2293816994886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D35" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>962.2293816994886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>962.2293816994886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>962.2293816994886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>962.2293816994886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W35" t="n">
-        <v>962.2293816994886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X35" t="n">
-        <v>962.2293816994886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y35" t="n">
-        <v>962.2293816994886</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7119,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>340.7491288998418</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>554.0190606638694</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y39" t="n">
-        <v>346.2587618989155</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="40">
@@ -7353,7 +7353,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
         <v>19.28114311021272</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="C41" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D41" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="E41" t="n">
         <v>224.0352098159517</v>
       </c>
-      <c r="C41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E41" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7423,10 +7423,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7435,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>324.6132922217692</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="C42" t="n">
-        <v>324.6132922217692</v>
+        <v>474.2010039226635</v>
       </c>
       <c r="D42" t="n">
-        <v>175.6788825605179</v>
+        <v>474.2010039226635</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>314.963548917208</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>314.963548917208</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>176.2327234998235</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>62.86358790740285</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7496,46 +7496,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>142.2888212580996</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>345.7514872519972</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V42" t="n">
-        <v>513.308066045118</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W42" t="n">
-        <v>513.308066045118</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X42" t="n">
-        <v>513.308066045118</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y42" t="n">
-        <v>324.6132922217692</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>710.0335234506114</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189.1984156022267</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7651,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>189.1984156022267</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>455.2401404867769</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>308.7055825136619</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>169.9747570962774</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>56.60562150385668</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7736,43 +7736,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>807.2329312674061</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>633.815586718075</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
         <v>16.44142755506243</v>
@@ -7830,28 +7830,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7993,7 +7993,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>139.0491612396719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8078,7 +8078,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8455,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8698,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9011,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9257,10 +9257,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9959,13 +9959,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10433,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11071,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,10 +11144,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>265.6729592778915</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11159,7 +11159,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11311,10 +11311,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11384,19 +11384,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,10 +23275,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>187.8597693607025</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1853526822936</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>52.65842668182016</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>45.02755642490803</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>308.3238026756795</v>
       </c>
       <c r="I14" t="n">
         <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>158.0184369674574</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>197.9905890720295</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23825,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>77.02266500177038</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,7 +24022,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X21" t="n">
-        <v>141.8841621389552</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24144,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>370.7373139160822</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24299,16 +24299,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>114.1648013839902</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>162.4378131530763</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24405,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24493,16 +24493,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V26" t="n">
-        <v>97.54843351316518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24533,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24542,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>59.59762388653245</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24572,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>21.08830116775198</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24581,13 +24581,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24727,7 +24727,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24736,19 +24736,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>307.3148329761767</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="30">
@@ -24770,19 +24770,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>55.60785721664939</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>275.3266899823874</v>
       </c>
       <c r="W32" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>59.38750492397951</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25131,10 +25131,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>252.344814527994</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.181203141508671</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>56.38340022020472</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25250,7 +25250,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25289,10 +25289,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25450,13 +25450,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.53384003736738</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>21.46887964564723</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25593,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.5828422233929</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C41" t="n">
         <v>159.7550473327271</v>
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,13 +25675,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,10 +25709,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>44.18528542885593</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25766,7 +25766,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.87486969218901</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25809,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25845,7 +25845,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,19 +25952,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>49.63408084210877</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>85.46777213178478</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26009,10 +26009,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415580.3161635466</v>
+        <v>415580.3161635468</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415580.3161635467</v>
+        <v>415580.3161635466</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415580.3161635468</v>
+        <v>415580.3161635466</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>181421.2881101714</v>
@@ -26331,10 +26331,10 @@
         <v>191084.7734110323</v>
       </c>
       <c r="H2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="I2" t="n">
         <v>191084.7734110322</v>
-      </c>
-      <c r="I2" t="n">
-        <v>191084.7734110323</v>
       </c>
       <c r="J2" t="n">
         <v>191084.7734110323</v>
@@ -26349,7 +26349,7 @@
         <v>191084.7734110323</v>
       </c>
       <c r="N2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="O2" t="n">
         <v>181421.2881101714</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44593.80166566608</v>
+        <v>44593.80166566597</v>
       </c>
       <c r="C6" t="n">
         <v>113467.5582473559</v>
       </c>
       <c r="D6" t="n">
-        <v>113467.5582473557</v>
+        <v>113467.5582473559</v>
       </c>
       <c r="E6" t="n">
-        <v>144955.3028330125</v>
+        <v>132317.1406781519</v>
       </c>
       <c r="F6" t="n">
-        <v>144955.3028330124</v>
+        <v>132317.1406781519</v>
       </c>
       <c r="G6" t="n">
-        <v>141419.7934604843</v>
+        <v>129201.7828404438</v>
       </c>
       <c r="H6" t="n">
-        <v>151148.8364346513</v>
+        <v>138930.8258146109</v>
       </c>
       <c r="I6" t="n">
-        <v>151148.8364346514</v>
+        <v>138930.8258146108</v>
       </c>
       <c r="J6" t="n">
-        <v>97376.3255444419</v>
+        <v>85158.31492440146</v>
       </c>
       <c r="K6" t="n">
-        <v>151148.8364346513</v>
+        <v>138930.8258146108</v>
       </c>
       <c r="L6" t="n">
-        <v>151148.8364346514</v>
+        <v>138930.8258146109</v>
       </c>
       <c r="M6" t="n">
-        <v>151148.8364346513</v>
+        <v>138930.8258146109</v>
       </c>
       <c r="N6" t="n">
-        <v>151148.8364346513</v>
+        <v>138930.8258146109</v>
       </c>
       <c r="O6" t="n">
-        <v>144955.3028330124</v>
+        <v>132317.1406781519</v>
       </c>
       <c r="P6" t="n">
-        <v>144955.3028330124</v>
+        <v>132317.1406781519</v>
       </c>
     </row>
   </sheetData>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>189.3802980198975</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>156.6908966650487</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>71.90760352242262</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>236.0720702014783</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>46.82786452690797</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>241.1586658756091</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,28 +27660,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>58.7955808554722</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,16 +27751,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>121.833429168942</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>7.135882382603</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1648513390239543</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27818,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029174</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,31 +27897,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>58.7955808554722</v>
       </c>
       <c r="V8" t="n">
-        <v>168.910924345744</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>95.54226196610317</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27949,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27985,10 +27985,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>118.9186394740786</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27997,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630766</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34704,7 +34704,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34713,7 +34713,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N11" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N11" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N14" t="n">
         <v>185.0873001866707</v>
-      </c>
-      <c r="N14" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35731,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N15" t="n">
         <v>21.52426467247106</v>
       </c>
-      <c r="N15" t="n">
-        <v>205.5178444382804</v>
-      </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35968,7 +35968,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35977,10 +35977,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38031,10 +38031,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
